--- a/PythonLearning/test.xlsx
+++ b/PythonLearning/test.xlsx
@@ -40,12 +40,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,8 +65,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -370,7 +376,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:600">
-      <c r="A1" t="n">
+      <c r="A1" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B1" t="n">
@@ -381,8 +387,8 @@
       </c>
     </row>
     <row r="2" spans="1:600">
-      <c r="A2" s="1" t="n">
-        <v>43135.71911494213</v>
+      <c r="A2" s="2" t="n">
+        <v>43138.07636140046</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>

--- a/PythonLearning/test.xlsx
+++ b/PythonLearning/test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>Passed</t>
+    <t>成功</t>
   </si>
   <si>
-    <t>Failed</t>
+    <t>失败</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
     </row>
     <row r="2" spans="1:600">
       <c r="A2" s="2" t="n">
-        <v>43138.07636140046</v>
+        <v>43260.46307919994</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
